--- a/Design/Data_Model.xlsx
+++ b/Design/Data_Model.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Final\InsurancePortal\Design\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" activeTab="6"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" tabRatio="759" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Users" sheetId="1" r:id="rId1"/>
-    <sheet name="Security_Question_MST" sheetId="2" r:id="rId2"/>
-    <sheet name="User_Roles" sheetId="3" r:id="rId3"/>
-    <sheet name="Audit_User" sheetId="4" r:id="rId4"/>
-    <sheet name="Customer" sheetId="5" r:id="rId5"/>
+    <sheet name="Index" sheetId="10" r:id="rId1"/>
+    <sheet name="Users" sheetId="1" r:id="rId2"/>
+    <sheet name="Customer" sheetId="5" r:id="rId3"/>
+    <sheet name="Admin_Profile" sheetId="11" r:id="rId4"/>
+    <sheet name="Staff_Profile" sheetId="12" r:id="rId5"/>
     <sheet name="Insurance" sheetId="6" r:id="rId6"/>
-    <sheet name="Vehicle" sheetId="9" r:id="rId7"/>
+    <sheet name="Query" sheetId="13" r:id="rId7"/>
+    <sheet name="Claim" sheetId="14" r:id="rId8"/>
+    <sheet name="User_Roles" sheetId="3" r:id="rId9"/>
+    <sheet name="Security_Question_MST" sheetId="2" r:id="rId10"/>
+    <sheet name="Audit_User" sheetId="4" r:id="rId11"/>
+    <sheet name="Vehicle" sheetId="9" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
   <si>
     <t>Password</t>
   </si>
@@ -64,18 +74,12 @@
     <t>Audit_Id</t>
   </si>
   <si>
-    <t>Created_By</t>
-  </si>
-  <si>
     <t>Modified_By</t>
   </si>
   <si>
     <t>Customer_Id</t>
   </si>
   <si>
-    <t>Cust_Addr</t>
-  </si>
-  <si>
     <t>Cust_Contact</t>
   </si>
   <si>
@@ -115,12 +119,6 @@
     <t>STAFF</t>
   </si>
   <si>
-    <t>Sequrity_Question_Id</t>
-  </si>
-  <si>
-    <t>Sequrity_Answer</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -128,16 +126,93 @@
   </si>
   <si>
     <t>Vehicle_Registration_No</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Admin_Profile</t>
+  </si>
+  <si>
+    <t>Staff_Profile</t>
+  </si>
+  <si>
+    <t>Insurance</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Master Tables</t>
+  </si>
+  <si>
+    <t>Roles</t>
+  </si>
+  <si>
+    <t>Security_Question_MST</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>Vehicle_Company_MST</t>
+  </si>
+  <si>
+    <t>Vehicle_Model_MST</t>
+  </si>
+  <si>
+    <t>COLUMN_NAME</t>
+  </si>
+  <si>
+    <t>DATA TYPE</t>
+  </si>
+  <si>
+    <t>NOT NULL</t>
+  </si>
+  <si>
+    <t>CONSTRAINT</t>
+  </si>
+  <si>
+    <t>Cust_Addr1</t>
+  </si>
+  <si>
+    <t>Cust_addr2</t>
+  </si>
+  <si>
+    <t>Cust_Addr3</t>
+  </si>
+  <si>
+    <t>Admin_Id</t>
+  </si>
+  <si>
+    <t>Admin_Name</t>
+  </si>
+  <si>
+    <t>Admin_EmailId</t>
+  </si>
+  <si>
+    <t>Admin_Contact</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -160,13 +235,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -174,6 +252,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -222,7 +303,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -257,7 +338,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,73 +547,100 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A3:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23" customWidth="1"/>
-    <col min="11" max="11" width="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>5</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" location="Users!A1" display="Users"/>
+    <hyperlink ref="B4" location="Customer!A1" display="Customer"/>
+    <hyperlink ref="B12" location="User_Roles!A1" display="Roles"/>
+    <hyperlink ref="B5" location="Admin_Profile!A1" display="Admin_Profile"/>
+    <hyperlink ref="B6" location="Staff_Profile!A1" display="Staff_Profile"/>
+    <hyperlink ref="B7" location="Insurance!A1" display="Insurance"/>
+    <hyperlink ref="B8" location="Claim!A1" display="Claim"/>
+    <hyperlink ref="B9" location="Query!A1" display="Query"/>
+    <hyperlink ref="B13" location="Security_Question_MST!A1" display="Security_Question_MST"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,11 +649,13 @@
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -554,53 +664,48 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -608,37 +713,108 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.140625" customWidth="1"/>
@@ -650,36 +826,68 @@
     <col min="10" max="10" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>19</v>
       </c>
-      <c r="D1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" t="s">
-        <v>34</v>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -687,37 +895,149 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" customWidth="1"/>
     <col min="3" max="3" width="24.140625" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -727,24 +1047,99 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
         <v>27</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Data_Model.xlsx
+++ b/Design/Data_Model.xlsx
@@ -9,28 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" tabRatio="759" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" tabRatio="759" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
     <sheet name="Users" sheetId="1" r:id="rId2"/>
     <sheet name="Customer" sheetId="5" r:id="rId3"/>
-    <sheet name="Admin_Profile" sheetId="11" r:id="rId4"/>
-    <sheet name="Staff_Profile" sheetId="12" r:id="rId5"/>
-    <sheet name="Insurance" sheetId="6" r:id="rId6"/>
-    <sheet name="Query" sheetId="13" r:id="rId7"/>
-    <sheet name="Claim" sheetId="14" r:id="rId8"/>
-    <sheet name="User_Roles" sheetId="3" r:id="rId9"/>
-    <sheet name="Security_Question_MST" sheetId="2" r:id="rId10"/>
-    <sheet name="Audit_User" sheetId="4" r:id="rId11"/>
-    <sheet name="Vehicle" sheetId="9" r:id="rId12"/>
+    <sheet name="Staff_Profile" sheetId="12" r:id="rId4"/>
+    <sheet name="Insurance" sheetId="6" r:id="rId5"/>
+    <sheet name="Query" sheetId="13" r:id="rId6"/>
+    <sheet name="Claim" sheetId="14" r:id="rId7"/>
+    <sheet name="User_Roles" sheetId="3" r:id="rId8"/>
+    <sheet name="Security_Question_MST" sheetId="2" r:id="rId9"/>
+    <sheet name="Audit_User" sheetId="4" r:id="rId10"/>
+    <sheet name="Vehicle" sheetId="9" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
   <si>
     <t>Password</t>
   </si>
@@ -116,9 +115,6 @@
     <t>CUSTOMER</t>
   </si>
   <si>
-    <t>STAFF</t>
-  </si>
-  <si>
     <t>Gender</t>
   </si>
   <si>
@@ -185,16 +181,73 @@
     <t>Cust_Addr3</t>
   </si>
   <si>
-    <t>Admin_Id</t>
-  </si>
-  <si>
-    <t>Admin_Name</t>
-  </si>
-  <si>
-    <t>Admin_EmailId</t>
-  </si>
-  <si>
-    <t>Admin_Contact</t>
+    <t>Long</t>
+  </si>
+  <si>
+    <t>VarChar2(50)</t>
+  </si>
+  <si>
+    <t>VarChar2(100)</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Unique</t>
+  </si>
+  <si>
+    <t>VarChar2(20)</t>
+  </si>
+  <si>
+    <t>Number(2)</t>
+  </si>
+  <si>
+    <t>Char(1)</t>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Varchar2(50)</t>
+  </si>
+  <si>
+    <t>Varchar2(100)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Number()</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
+  </si>
+  <si>
+    <t>INSPECTOR</t>
+  </si>
+  <si>
+    <t>OPERATIONS</t>
+  </si>
+  <si>
+    <t>Staff_Id</t>
+  </si>
+  <si>
+    <t>Staff_Name</t>
+  </si>
+  <si>
+    <t>Staff_EmailId</t>
+  </si>
+  <si>
+    <t>Staff_Contact</t>
+  </si>
+  <si>
+    <t>Staff_Role_Id</t>
   </si>
 </sst>
 </file>
@@ -239,9 +292,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -561,62 +617,62 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -637,35 +693,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -684,7 +711,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A3"/>
   <sheetViews>
@@ -705,7 +732,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -717,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -737,66 +764,108 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>3</v>
       </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
+      <c r="B9" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -828,16 +897,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -867,27 +936,27 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -897,10 +966,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -913,36 +982,62 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>71</v>
+      </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -951,41 +1046,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
@@ -1003,16 +1063,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1038,6 +1098,35 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1057,16 +1146,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1076,52 +1165,48 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" t="s">
+        <v>46</v>
+      </c>
+    </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2" t="s">
         <v>26</v>
       </c>
@@ -1130,6 +1215,15 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
       <c r="J3" t="s">
         <v>27</v>
       </c>
@@ -1138,8 +1232,60 @@
       <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="I4">
+        <v>3</v>
+      </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>5</v>
+      </c>
+      <c r="J6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Design/Data_Model.xlsx
+++ b/Design/Data_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" tabRatio="759" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" tabRatio="759" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>Password</t>
   </si>
@@ -248,6 +248,39 @@
   </si>
   <si>
     <t>Staff_Role_Id</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>SubModel</t>
+  </si>
+  <si>
+    <t>Chasis_No</t>
+  </si>
+  <si>
+    <t>Engine_No</t>
+  </si>
+  <si>
+    <t>CC</t>
+  </si>
+  <si>
+    <t>Fuel_Type</t>
+  </si>
+  <si>
+    <t>Manufacturing_Year</t>
+  </si>
+  <si>
+    <t>Registration_Date</t>
+  </si>
+  <si>
+    <t>Vehicle_Registrtion_City</t>
+  </si>
+  <si>
+    <t>PIN_Code_Current_Residence</t>
   </si>
 </sst>
 </file>
@@ -713,15 +746,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A2:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -735,6 +768,61 @@
         <v>30</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -744,7 +832,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>

--- a/Design/Data_Model.xlsx
+++ b/Design/Data_Model.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" tabRatio="759" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="14355" windowHeight="4680" tabRatio="759" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="85">
   <si>
     <t>Password</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>PIN_Code_Current_Residence</t>
+  </si>
+  <si>
+    <t>Last_Successful_Login_Date</t>
   </si>
 </sst>
 </file>
@@ -748,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -830,10 +833,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -954,6 +957,14 @@
       </c>
       <c r="B11" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
